--- a/cypress/downloads/out2.xlsx
+++ b/cypress/downloads/out2.xlsx
@@ -397,13 +397,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Thesis No</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Author</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Year</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Thesis Name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Thesis Type</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="G1" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="H1" t="str">
+        <v>trSummary</v>
+      </c>
+      <c r="I1" t="str">
+        <v>enSummary</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>149</v>
+      </c>
+      <c r="B2" t="str">
+        <v>600026</v>
+      </c>
+      <c r="C2" t="str">
+        <v>HİLAL YİĞİT AKIN</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Fen bilimleri öğretmen adaylarının biyolojik kaçakçılık kavramına yönelik görüşleriScience teacher prospective opinions on the concept of biological smuggli̇ng</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Yüksek Lisans</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Eğitim ve Öğretim = Education and Training</v>
+      </c>
+      <c r="H2" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	 Türkiye; tarihi, geçmişi, kültürü, medeniyetleri, farklı ekolojik, iklimsel ve coğrafi özelliklerine bağlı olarak bir kıta büyüklüğünde biyolojik tür zenginliğe sahiptir. Türkiye, endemizm ve tür içi genetik çeşitlilikte Avrupa'dan daha zengin bir ülke olarak bilinmektedir. Türkiye'nin biyoçeşitlilik açısından zenginliği komşularının fakir olması ile daha da dikkat çekmektedir. Bu durum zamanla biyokaçakçılığa sebep olmuştur. Türlerimizi koruyabilmek için ise öğrencilerine çevre bilincini kazandırabilecek öğretmenlerin ve dolayısıyla öğretmen adaylarının çevre ile ilgili konulardaki görüşlerinin önem taşıdığı düşünülmektir. Bu çalışmada fen bilimleri öğretmen adaylarının önemli çevre konularından biri olan biyolojik kaçakçılığa ilişkin görüşleri belirlenmeye çalışılmıştır. Bu amaçla Burdur Mehmet Akif Ersoy Üniversitesi Eğitim Fakültesi Matematik ve Fen Bilimleri Öğretmenliği Anabilim Dalı Fen Bilimleri Öğretmenliğin de eğitim gören 4. sınıf öğrencilerinden toplam 10 öğrenci ile çalışma yürütülmüştür. Çalışmada nitel araştırma yöntemi ve durum çalışması yapılmıştır. Araştırma verilerinin çözümlenmesi içerik analizi ve betimsel analiz birlikte kullanılarak gerçekleştirilmiştir. Öğrencilerin biyolojik kaçakçılığa ilişkin görüşlerini belirlemek amacıyla temel olarak 8 sorudan oluşan yarı yapılandırılmış görüşme formu uygulanmıştır. Elde edilen veriler, biyolojik kaçakçılığın tanımı, değeri, Dünya'daki ve Türkiye'deki durumu, korunmasına yönelik yapılabilecekler, biyolojik kaçakçılığa etki eden faktörler, biyolojik kaçakçılık hakkında bilgi edinme yolları kategorileri altında incelenmiştir. Elde edilen bulgular sonucunda ise öğretmen adaylarının biyolojik kaçakçılık kavramını tam olarak açıklayamadıkları, öğrenci görüşlerinin biyolojik kaçakçılık kavramına sınırlı kaldığı sonucuna ulaşılmaktadır.
+	 </v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	  Turkey has a continent-wide floristic wealthiness because of its history, culture, civilizations, different ecological, climatic and geographical features. Turkey is wealthier than our neighbors in terms of endemism and diversity in genus. Being wealthier is remarkable in bio-diversity in this region than others. This has led to bio-smuggling in time. To protect our species, awareness of environmental consciousness of students must be raised by teachers. So it's important to know opinions of teachers and teacher candidates about environmental issues. In this study, we have tried to find out opinions of science and technology teacher candidates on bio-smuggling which is one of the most important issue of this field. For this purpose, this study has been held with 10 4th grade students which are studying in Science and Technology Teaching Department and Mathematics Teaching Department. In the, study case used which is a branch of qualitative research. Analysis of this research data was carried out with content analysis and descriptive analysis. A semi-structured interview, based on 8 questions, is applied those students to determine their opinions about bio-smuggling. Obtained information is examined under those titles: the definition of bio-smuggling and value of it, its situation in Turkey and around the world, doable things for protection, effective elements on bio-smuggling, gathering information about bio-smuggling.  As a result of the findings, it was concluded that pre-service teachers could not fully explain the concept of bio-smuggling, and students' views were limited to the concept of bio-smuggling.</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>152</v>
+      </c>
+      <c r="B3" t="str">
+        <v>543479</v>
+      </c>
+      <c r="C3" t="str">
+        <v>GAMZE ALP</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2019</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Scratch programı ile web destekli işbirlikli öğrenme yönteminin ilkokul 5. sınıf öğrencilerinin kavramsal anlama düzeylerine ve eleştirel düşünme becerilerine etkisiThe impact of scratch program and web assisted cooperative learning method on the level of conceptual understanding and critical thinking skills of 5th grade students</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Yüksek Lisans</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Eğitim ve Öğretim = Education and Training</v>
+      </c>
+      <c r="H3" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	 Türkiye; tarihi, geçmişi, kültürü, medeniyetleri, farklı ekolojik, iklimsel ve coğrafi özelliklerine bağlı olarak bir kıta büyüklüğünde biyolojik tür zenginliğe sahiptir. Türkiye, endemizm ve tür içi genetik çeşitlilikte Avrupa'dan daha zengin bir ülke olarak bilinmektedir. Türkiye'nin biyoçeşitlilik açısından zenginliği komşularının fakir olması ile daha da dikkat çekmektedir. Bu durum zamanla biyokaçakçılığa sebep olmuştur. Türlerimizi koruyabilmek için ise öğrencilerine çevre bilincini kazandırabilecek öğretmenlerin ve dolayısıyla öğretmen adaylarının çevre ile ilgili konulardaki görüşlerinin önem taşıdığı düşünülmektir. Bu çalışmada fen bilimleri öğretmen adaylarının önemli çevre konularından biri olan biyolojik kaçakçılığa ilişkin görüşleri belirlenmeye çalışılmıştır. Bu amaçla Burdur Mehmet Akif Ersoy Üniversitesi Eğitim Fakültesi Matematik ve Fen Bilimleri Öğretmenliği Anabilim Dalı Fen Bilimleri Öğretmenliğin de eğitim gören 4. sınıf öğrencilerinden toplam 10 öğrenci ile çalışma yürütülmüştür. Çalışmada nitel araştırma yöntemi ve durum çalışması yapılmıştır. Araştırma verilerinin çözümlenmesi içerik analizi ve betimsel analiz birlikte kullanılarak gerçekleştirilmiştir. Öğrencilerin biyolojik kaçakçılığa ilişkin görüşlerini belirlemek amacıyla temel olarak 8 sorudan oluşan yarı yapılandırılmış görüşme formu uygulanmıştır. Elde edilen veriler, biyolojik kaçakçılığın tanımı, değeri, Dünya'daki ve Türkiye'deki durumu, korunmasına yönelik yapılabilecekler, biyolojik kaçakçılığa etki eden faktörler, biyolojik kaçakçılık hakkında bilgi edinme yolları kategorileri altında incelenmiştir. Elde edilen bulgular sonucunda ise öğretmen adaylarının biyolojik kaçakçılık kavramını tam olarak açıklayamadıkları, öğrenci görüşlerinin biyolojik kaçakçılık kavramına sınırlı kaldığı sonucuna ulaşılmaktadır.
+	 </v>
+      </c>
+      <c r="I3" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	  Turkey has a continent-wide floristic wealthiness because of its history, culture, civilizations, different ecological, climatic and geographical features. Turkey is wealthier than our neighbors in terms of endemism and diversity in genus. Being wealthier is remarkable in bio-diversity in this region than others. This has led to bio-smuggling in time. To protect our species, awareness of environmental consciousness of students must be raised by teachers. So it's important to know opinions of teachers and teacher candidates about environmental issues. In this study, we have tried to find out opinions of science and technology teacher candidates on bio-smuggling which is one of the most important issue of this field. For this purpose, this study has been held with 10 4th grade students which are studying in Science and Technology Teaching Department and Mathematics Teaching Department. In the, study case used which is a branch of qualitative research. Analysis of this research data was carried out with content analysis and descriptive analysis. A semi-structured interview, based on 8 questions, is applied those students to determine their opinions about bio-smuggling. Obtained information is examined under those titles: the definition of bio-smuggling and value of it, its situation in Turkey and around the world, doable things for protection, effective elements on bio-smuggling, gathering information about bio-smuggling.  As a result of the findings, it was concluded that pre-service teachers could not fully explain the concept of bio-smuggling, and students' views were limited to the concept of bio-smuggling.</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>178</v>
+      </c>
+      <c r="B4" t="str">
+        <v>528925</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ESRA SARAÇ</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Sınıf öğretmeni adaylarının çevre kimlikleri ve çevreye yönelik materyalist eğilimleri: Eylem araştırmasıPre-service elementary teachers' environmental identities and materialistic tendencies towards the environment: Action research</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Doktora</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Eğitim ve Öğretim = Education and Training</v>
+      </c>
+      <c r="H4" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	 Ülkemizde öğretmen ve öğrencilerin teknolojiyi etkili bir şekilde kullanması amacıyla okullarda gerekli alt yapının sağlanarak, bilişim teknolojileri destekli öğretimin gerçekleştirilmesi amaçlanmıştır. Bunun yanı sıra, Fen Bilimleri dersi 2018 öğretim programında "Mühendislik ve Tasarım Becerileri" alt alanında öğrencilerin problemlere disiplinler arası bir bakış açısıyla yaklaşarak ürün oluşturmaları hedeflenmektedir. Kodlama becerisi, bilişim teknolojileri aracılığıyla iletişim kurmak için kullanılan bir dil olarak tanımlanmaktadır. Ayrıca, dijital oyun tasarımının kodlama eğitiminde yaygın bir şekilde kullanılmaya başlandığı görülmektedir. Bu alanda yapılan araştırmalarda kodlama eğitimine başlayanlara oyun ve hikâyeler oluşturmayı sağlayan Scratch programının kullanılması önerilmektedir. Bu araştırmanın amacı Scratch Programı ile Web destekli işbirlikli öğrenme yönteminin ilköğretim 5. Sınıf öğrencilerinin kavramsal anlama düzeylerine ve eleştirel düşünme becerilerine etkisini incelemektir. Araştırma 2018 Bahar döneminde Bursa ilinde bir devlet okulunda iki 5. sınıf şubesi deney, iki 5. sınıf şubesi kontrol grubu olmak üzere toplam 96 öğrenci ile gerçekleştirilmiştir. Deney gruplarına Fen Bilimleri dersinde işlenen kontrol gruplarındaki uygulamalardan farklı olarak, 16 bilgisayar dersi boyunca Scratch programı ile kodlama eğitimi verilmiştir. Kodlama eğitimi alan deney grubu öğrencilerinden işbirlikli öğretim yöntemi ile çalışarak Fen Bilimleri dersinde öğrendikleri "biyoçeşitlilik" konusu ile ilgili oyunlar tasarlamaları istenmiştir. Öğrencilerin Fen Bilimleri öğretim programında kavramsal anlama düzeyini tespit etmek amacı ile oluşturulan "İnsan ve Çevre" ünitesinde yer alan iki kazanıma yönelik iki aşamalı değerlendirme soruları veri toplama aracı olarak kullanılmıştır. Araştırmada kapsam geçerliğini sağlamaya yönelik olarak uzman görüşü ve belirtke tablosu kullanılmıştır. Yüz geçerliğini sağlamak amacıyla, konuyu geçen yıl öğrenmiş olan yedi sekizinci sınıf öğrencisi ile sorular hakkında görüşme yapılmıştır. Öğrencilerin eleştirel düşünme becerilerini tespit etmeye yönelik kullanılan veri toplama aracı olarak ise "Eleştirel Düşünme Anketi" kullanılmıştır. Araştırmada ön test - son test kontrol gruplu yarı deneysel desen uygulanmış ve veriler ilişkili örneklemler için t-testi kullanılarak analiz edilmiştir. Bulgular deney gruplarının kavramsal anlama düzeylerindeki artışın, kontrol gruplarıyla kıyaslandığında, deney grupları lehine anlamlı fark olduğunu göstermektedir. Buna ek olarak, deney grubu öğrencilerinin son test puanlarına bakıldığında, Scratch Programı ile Web Destekli İşbirlikli Öğrenmeye dayalı öğrenim gören deney grubu öğrencilerinin, eleştirel düşünme becerilerinde artış olduğu tespit edilmiştir. Bu çalışma sonucunda öğrencilerin Scratch ile kodlamayı öğrenirken akademik bir konuda proje hazırlamaya teşvik edilmelerinin, kavramsal anlamalarını ve eleştirel düşünme becerilerini olumlu etkilediği görülmektedir. Araştırmanın sonucunda Fen Bilimleri öğretmenlerinin Scratch programı ile Web destekli işbirlikli öğrenme yöntemini derslerinde etkin biçimde kullanmaları önerilmektedir. Program geliştiricilerin, eleştirel düşünme gibi üst düzey düşünme becerilerini geliştirebilecek bir müfredat hazırlarken, kişilerin diğer bireylerden farklı olduğunu keşfetmesini sağlamayı dikkate alabilmelerinin yararlı olacağı düşünülmektedir. 
+Anahtar Kelimeler: Scratch, kodlama, kavramsal öğrenme, eleştirel düşünme, web destekli işbirlikli öğrenme
+	 </v>
+      </c>
+      <c r="I4" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	  UNDERSTANDING AND CRITICAL THINKING SKILLS OF 5TH GRADE STUDENTS
+By providing necessary technological infrastructure to schools, the aim is to develop IT Supported Teaching and making teachers and students use technology effectively. Furthermore, in the 2018 teaching programme of "Science Lesson,", in the "Engineering and Design Skills" sub-section, the students are expected to approach problems with a multidisciplinary point of view and to generate an end product. Coding skill is defined as a language to communicate using information Technologies. Also, currently it is usual to see digital game design in coding educations.  In the research in this field, use of Scratch Software is recommended for the new beginners of coding education, to create games and stories. The purpose of this research is to observe the effect of web-supported "cooperative teaching" method using Scratch software, on 5th grade students' level of conceptual understanding and critical thinking skills. The research has been performed at Bursa, in a public school in spring 2018, with 4 classes of 5th grades,  where 2 of them is control and the other 2 is experimental group, with 96 students in total.  To the experimental groups, different than the control groups, a coding training of 16 hours was given, using the Scratch software. The experimental group which attended the coding training was asked to   design games related to the subject of "biodiversity" , which they had learned at the Science Lesson, working with the method of cooperative teaching. Two gradual evaluation questions derived from the unit of " Human and Environment",which had been created to detect the students' level of conceptual understanding in the programme of Science Teaching, are used as a tool to collect information. In the research, in order to provide the scope's validity we considered the comments of an expert and used a determinant table. To provide the "face validity"', interviews were done with seven 8th grade last year students. We used the "Critical Thinking Survey" as a tool to retrieve information to determine students' critical thinking skills. In the study, experimental design with pre-test-posttest control group was applied and the data were analyzed by using t-test for related samples. The results show that the experimental group has a better score compared to the control group in the means of conceptual understanding level. Additionally, when we look at the scores of the control group, we see that students in the experimental group which used the "I.T. Supported Cooperative Learning with Scratch" method, have further improved their skills of critical thinking. As a result of this study, it is observed that encouraging students to prepare a project on an academic subject while learning coding with Scratch, has a positive effect on their conceptual understanding and critical thinking skills. As a result of this study, Science Teachers are recommended to use "I.T. Supported Cooperative Learning with Scratch" actively in teaching. It is considered as beneficial for program developers to consider making a curriculum that can help people develop high-level thinking skills such as critical thinking, while allowing them to discover that they are different from other individuals.
+Keywords: Scratch, coding, conceptual learning, critical thinking, web based collaborative learning</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>182</v>
+      </c>
+      <c r="B5" t="str">
+        <v>471780</v>
+      </c>
+      <c r="C5" t="str">
+        <v>NESLİHAN FISTIKEKEN</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Ortaokul öğrencilerinin biyoçeşitliliğin azalmasına yönelik tutumlarının incelenmesi ve biyoçeşitlilik eğitiminin önemiInvestigation of attitudes of secondary school students towards decrease of biodiversity and the importance of biodiversity education</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Yüksek Lisans</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Eğitim ve Öğretim = Education and Training</v>
+      </c>
+      <c r="H5" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	 Bu çalışmanın amacı ahlaki muhakeme içeren çevre eğitimi uygulamasının sınıf öğretmeni adaylarının çevre kimliklerinin geliştirilmesine ve çevreye yönelik materyalist eğilimlerinin azaltılmasına etkisinin incelenmesidir. Eylem araştırması deseninde yürütülen bu araştırmada ahlaki muahakeme içeren çevre eğitimi kapsamında eylem planı hazırlanmıştır. Araştırma, 2016-2017 eğitim-öğretim yılı bahar döneminde Türkiye'de Güneydoğu Anadolu Bölgesi'nde bir devlet üniversitesinin sınıf öğretmenliği bölümünde öğrenim gören 23 öğretmen adayı ile gerçekleştirilmiştir. Çalışma grubu belirlenirken amaçlı örnekleme yöntemlerinden ölçüt örnekleme kullanılmıştır. Öğretmen adaylarının daha önce zorunlu ve seçmeli herhangi bir çevre dersini almamış olmaları ölçüt olarak belirlenmiştir. Uygulamalarda sekiz hafta süresince çevre ve tüketim, hava kirliliği, su sorunu, toprak sorunu, nükleer enerji santralleri, küresel iklim değişikliği, biyoçeşitlilik ve sürdürülebilir biyosfer olmak üzere sekiz çevre konusu ele alınmıştır. Bu çalışmada veriler toplanırken hem nitel hem de nicel veri toplama araçları birlikte kullanılmıştır. Nitel veriler, açık uçlu anketler, etkinlik formları, yansıtıcı yazı formları, yapılandırılmamış gözlem (kamera kayıtları) ve odak grup görüşmeleri ile elde edilmiştir. Nicel veriler ise "Çevreye Yönelik Materyalist Eğilimler Ölçeği" ve "Çevre Kimliği Ölçeği" (Environmental Identity Scale) kullanılarak elde edilmiştir. Çevreye yönelik materyalist eğilimler ölçeği bu çalışma için araştırmacılar tarafından geliştirilmiş ve güvenirliği 0,94 olarak hesaplanmıştır. Güvenirliği bu çalışma için 0,85 olarak hesaplanan Çevre kimliği ölçeği ise orijinali Clayton (2003)
+vi
+tarafından geliştirilmiş, Clayton ve Kılınç tarafından Türkçe' ye uyarlanmıştır. Araştırmada elde edilen nitel veriler içerik analizi ve betimsel analiz yapılarak çözümlenirken nicel verilerin analizinde nonparametrik testlerden Wilcoxon İşaretli Sıralar Testi kullanılmıştır. Uygulamalar sırasında her hafta farklı çevre konusu ile gerçekleştirilen etkinliğin başında (açık uçlu anketler) ve sonunda (yansıtıcı yazı formaları) elde edilen nitel verilerin analizi sonucunda katılımcıların çevre kimlikleri ve çevreye yönelik materyalist eğilimlerine ilişkin ifadelerinde olumlu değişimler olduğu ortaya konmuştur. Aynı zamanda bu süreçte ekosentrik ahlaki muhakeme kalıplarının arttığı görülmüştür. 8 haftalık uygulamanın başında ve sonunda elde edilen açık uçlu anketlerle elde edilen veriler incelendiğinde çalışma sonunda olumlu çevre kimliği ile ilgili cevap sayılarının arttığı (Uygulama öncesi: 36, Uygulama sonrası: 63) çevreye yönelik materyalist eğilimler içeren cevap sayılarının ise azaldığı (Uygulama öncesi: 150, Uygulama sonrası: 36) görülmüştür. Bu araştırmada sınıf öğretmeni adaylarının "Çevre Kimliği Ölçeği"nden aldıkları öntest (𝑋̅= 120,43) ve sontest (𝑋̅=144,34) ortalama puanları arasında (p&lt;.05) ve "Çevreye Yönelik Materyalist Eğilimler Ölçeği" öntest (𝑋̅=54,26) ve sontest (𝑋̅=71,60) ortalama puanları arasında (p&lt;.05) istatistiksel olarak anlamlı farklılık ortaya çıkmıştır. Öğretmen adaylarına araştırmanın başında ve ne sonunda uygulanan çevre kimliği ve çevreye yönelik materyalist eğilimler ölçeklerinden elde edilen nicel veriler de nitel verileri desteklemektedir. Bu çalışmada ayrıca uygulamalar bittikten 4 hafta sonra öğretmen adaylarıyla odak grup görüşmeleri gerçekleştirilmiş ve öğretmen adaylarının çevre eğitimi uygulamasına ilişkin görüşleri alınmıştır. Odak grup görüşmelerinin analizi sonucunda katılımcıların ahlaki muhakeme içeren çevre eğitimine yönelik görüşlerinin olumlu olduğu, öğretmen adaylarının olumlu çevre kimliği göstergeleri olan ifadeleri kullanırken çevreye yönelik materyalist ifadeler ortaya koymadıkları görülmüştür. Katılımcıların araştırma bittikten sonraki süreçte pek çok çevre dostu davranışı hayata geçirmeye çalıştıklarını ifade etmeleri uygulamanın öğretmen adaylarının günlük yaşamlarına yansıması ile ilgili önemli bir sonuç olarak karşımıza çıkmıştır. Araştırmada elde edilen bu sonuçlardan hareketle, ahlaki muhakemeler yapmaları sağlanarak uygulanan çevre eğitiminin öğretmen adaylarının çevre kimliklerini geliştirmeye ve çevreye yönelik materyalist eğilimleri azaltmaya yönelik kullanılabileceği görülmüştür. Araştırmada nitel verilerin analizinde çevre kimlikleri ile çevreye yönelik materyalist eğilimleri arasında bir ilişki olabileceği görülmüştür. Bu nedenle çevre kimlikleri ve çevreye yönelik materyalist eğilimler arasındaki ilişkileri ortaya koyabilecek büyük örneklemli ilişkisel çalışmalar yapabilir. Bunlarla birlikte, daha büyük örneklem gruplarıyla farklı değişkenlerin çevre kimliklerine ve çevreye yönelik materyalist eğilimlere olan etkisine ilişkin çalışmalar yapılabileceği önerilebilir.
+	 </v>
+      </c>
+      <c r="I5" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	  The aim of this study is to examine the effect of environmental education practice involving moral reasoning on the development of pre-service elementary teachers' environmental identities and the reduction of their materialistic tendencies towards the environment. In this research, which was carried out under the action research design, an action plan was prepared within the scope of socio-scientific issues-based environmental education. Conducted during the spring semester in the 2016-2017 academic year, this study involved 23 pre-service classroom teachers studying at the department of classroom teaching at a state university in the Southeastern Anatolia Region in Turkey. Criterion sampling was used from among purposeful sampling methods in order to determine the study group. That the pre-service teachers had not taken any compulsory or elective environment-related courses before was specified as a criterion. A total of eight environmental issues, which involved environment and consumption, air pollution, water issues, land issues, nuclear energy plants, global climate change, biodiversity and sustainable biosphere, were dwelled on for eight weeks during the applications in environmental education. Both qualitative and quantitative data collection tools were used to collect data in this study. Qualitative data were collected using open-ended questionnaires, activity forms, reflective writing forms, unconstructed observation (video recordings) and focus group discussions while qualitative data were
+viii
+obtained using "Materialistic Tendencies Towards the Environment Scale" and "Environmental Identity Scale". The Materialistic Tendencies towards the Environment scale was developed by the researchers for this study and the reliability was estimated as 0.94. The environmental identity scale estimated as 0.85 for the reliability of this study was originally developed by Clayton (2003) and adapted to Turkish by Clayton and Kılınç. The qualitative data obtained from the study were examined using content and descriptive analysis, while Wilcoxon Signed Rank Test was used from among the non-parametrical tests in order to analyze the quantitative data. As a result of analyzing the qualitative data obtained at the beginning (open-ended questionnaires) and at the end (reflective writing style) of the activity related to different environmental issues dwelled on during the applications that were conducted at the beginning of each week, the participants were observed to display positive changes in their expressions about environmental identities and materialistic tendencies towards the environment. On analysing the data obtained through open-ended questionnaires carried out at the beginning and at the end of an 8-week application, the number of answers (pre-application:36, post-application: 63) related to positive environmental identity was observed to increase at the end of the study, while those related to materialistic tendencies towards the environment seemed to reduce (pre-application:150, post-application: 36). In this study, pre-test (𝑿̅= 120,43) and post-test (𝑿̅=144,34) mean scores that pre-service elementary teachers obtained from the "Environmental Identity Scale" (p&lt;.05) and their pre-test (𝑿̅=54,26) and post-test (𝑿̅=71,60) mean scores obtained from the "Materialistic Tendencies Towards the Environment Scale" (p&lt;.05) were statistically significant. Quantitative data obtained from the environmental identity scale and materialistic tendencies towards the environment scale applied at the beginning and end of the research on pre-service teachers also support the qualitative data. In this study, 4 weeks after the applications were completed, focus group interviews were conducted with the pre-service teachers and their opinions were taken regarding the environmental education practice involving moral reasoning. Analysis of the focus group interviews revealed that participants' opinions on activities were positive, while pre-service teachers did not mention any materialistic expressions when using expressions which were regarded as positive environmental identity indicators. Participants later expressed their attempts to show many environmentally-friendly attitudes in real life after the research was over, which proved an important outcome related to the reflection of the practice on the daily life of pre-service teachers. Based on these results, it is clearly seen that environmental education practice involving moral reasoning can be used for pre-service teachers to improve their environmental identities and to reduce materialistic tendencies towards the environment. In this study, the analysis of qualitative data shows that there may be a relationship between environmental identities and materialistic tendencies towards the environment.</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>215</v>
+      </c>
+      <c r="B6" t="str">
+        <v>414436</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ŞEVKİ BABACAN</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2015</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Coğrafya öğretmenlerinin hizmet içi eğitim ihtiyaçlarının belirlenmesiDetermining the in - service training needs of geography teachers</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Doktora</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Coğrafya = Geography ; Eğitim ve Öğretim = Education and Training</v>
+      </c>
+      <c r="H6" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	 Bu çalışma ortaokul 8.sınıf öğrencilerinin, biyoçeşitliliğin azalmasına yönelik görüş ve tutumlarını incelemek amacıyla yapılmıştır. Biyoçeşitliliğin azalmasına yönelik öğrenci tutumlarının okullara, cinsiyete, yaşa, evcil hayvana sahip olmaya, çevrelerinde bildikleri yabani hayvanları tanıma düzeylerine göre farklılık gösterip göstermediği incelenmiştir. Nicel betimsel nitelikte bir çalışmadır. Çalışmanın evrenini, örneklemin seçilmiş olduğu Antalya ilinin Muratpaşa, Kepez ve Manavgat ilçesinde bulunan bütün ortaokul 8.sınıf öğrencileri oluşturmaktadır. Okulların seçiminde öğrencilere sunulan eğitim olanak farkları göz önüne alınmıştır. Çalışmada kullanılan ölçme aracı 3 farklı ortaokulda toplamda 288 öğrenciye (144 kız %50, 140 erkek %48,6, %1,4'lük kısım cinsiyetini belirtmemiştir.) uygulanmıştır. Daha detaylı hazırlanan müfredat programı ve öğrencilerin doğa ile iç içe etkileşim halinde bulunabileceği doğa eğitimiyle öğrencilerin eksikliklerinin giderilebilmesi sağlanabilir. Bu sayede öğrencilere öğretmenleri eşliğinde, doğayı, çevrelerindeki canlıları, canlıların çeşitliliğini, canlılar arasındaki etkileşimleri gözlemleme ve onları tanıma fırsatı verilebilir. Bu çalışmalar sonucunda çevrelerine karşı duyarlı ve bilinçli bireylerin yetişmesine olanak sağlanabilir.
+	 </v>
+      </c>
+      <c r="I6" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	  This study was conducted to investigate the attitudes of secondary school, 8th grade students towards the loss of biodiversity. It has been examined whether student attitudes towards biodiversity loss differ according to school types, the level of identification of wild animals, sex, age, ownership of domestic animals.
+This study is quantitative descriptive research. The range of the study is constituted by- 8th grade students of Antalya, Muratpaşa, Kepez and Manavgat regions. Evaluation scale of the study has been applied to three different middle-school with a total of 288 students (144 girls 50%, 140 boys 48.6%, and undefined gender ratio 1.4%). With the curriculum prepared in detail, it is possible to eliminate the deficiencies of the students by interacting with nature and training them. In this way, to students can be given opportunities, to observe and recognize nature, diversity of the organisms, interactions between the organisms with the presence of their teachers. After that, it is possible to raise sensitive and conscious individuals towards their environment.</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>239</v>
+      </c>
+      <c r="B7" t="str">
+        <v>320417</v>
+      </c>
+      <c r="C7" t="str">
+        <v>FİLİZ GÜLHAN</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2012</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Sosyo-bilimsel konularda bilimsel tartışmanın 8. sınıf öğrencilerinin fen okuryazarlığı, bilimsel tartışmaya eğilim, karar verme becerileri ve bilim-toplum sorunlarına duyarlılıklarına etkisinin araştırılmasıThe investigation about the effect of argumentation on socio-scientific issues in scientific literacy for eighth grade students, tendency in the argumentation, decision making skills and science-social problems of sensitivity</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Yüksek Lisans</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Eğitim ve Öğretim = Education and Training</v>
+      </c>
+      <c r="H7" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	 Bu doktora çalışması, coğrafya öğretmenlerinin hizmet içi eğitim ihtiyaçları belirlenmek amacıyla yürütülmüştür. Tarama modeli planına uygun olarak tasarımlanan araştırmanın çalışma evrenini; 2014-2015 eğitim öğretim yılında, İstanbul İl Milli Eğitim Müdürlüğü verileri doğrultusunda İstanbul il genelindeki ortaöğretim kurumlarında görev yapan toplam (N=1409) coğrafya öğretmeni oluşturmuştur. 
+Örneklem seçiminde nicel ve nitel olarak iki farklı örneklem alma yoluna gidilmiştir. Bu amaçla, nicel örneklem seçimi için İstanbul il sınırlarındaki 39 ilçenin her birinden; bir anadolu lisesi, bir mesleki teknik lise, bir imam hatip lisesi ile İstanbul ilindeki toplam altı fen lisesi ve üç sosyal bilimler lisesi örnekleme dahil edilmiştir. Toplamda 124 okulda görevli (n=210) coğrafya öğretmeni ile yüz yüze görüşmeler ile nicel çalışma yürütülmüştür. 
+Nitel örneklem seçimi için de, yine çalışma evreni içerisinden seçilen (n=21) coğrafya öğretmeni ile görüşme gerçekleştirilmiştir. Bu öğretmenler; anadolu, mesleki teknik, imam hatip, fen, sosyal bilimler liseleri ile üç özel okul öğretmeninden oluşmuştur. 
+Okullardaki coğrafya öğretmenleri ile birebir yapılan görüşmelerde ölçme aracı olarak "hizmet içi eğitim ihtiyaç belirleme anketi" ve "yarı yapılandırılmış görüşme formu" kullanılmıştır. Bu formların uzman görüşü ve güvenirlik çalışmaları itina ile gerçekleştirilmiştir. 
+Nicel veriler, 39 ilçe merkezinde 210 coğrafya öğretmeni yardımıyla toplanarak, SPSS istatistik programı ile değerlendirilmiştir. Yüzdelik (%) ve frekans (f) değerleri hesaplanarak, coğrafya öğretmenlerinin hizmet içi eğitime dair ihtiyaçları tespit edilmiştir. Nitel veriler de, 21 coğrafya öğretmeni ile görüşme formu yardımıyla toplanarak betimsel analiz yöntemiyle analiz edilmiştir. 
+Bulgular doğrultusunda, coğrafya öğretmenlerinin hizmet içi eğitime bakışları olumludur ve yapılan hizmet içi eğitimleri gerekli görmektedirler. Öğretmenlerin çoğu genel öğretmenlik bilgisi konularında hizmet içi eğitim faaliyetlerine katılmıştır. Bunun yanında, öğretmenlerin arasında coğrafya alanına yönelik hizmet içi eğitime katılım sınırlıdır. Coğrafya öğretmenleri, alanları olan coğrafya eğitimi ile ilgili olarak daha fazla hizmet içi eğitim düzenlenmesini ve eğitimlerin kalitesinin artırılmasını talep etmişlerdir. 
+Bulgular, coğrafya öğretmenlerinin genel anlamda öğretmenlik mesleğini severek yaptıkları ve isteyerek seçtikleri yönündedir. Öğretmen yetiştiren programları coğrafya öğretmenleri yeterli görmemekle birlikte; öğretmen yetiştirmenin eğitim fakültelerinde yapılmasının daha faydalı olabileceği yönünde görüş bildirmişlerdir. Araştırmaya katılan coğrafya öğretmenleri mezun oldukları üniversitelerini; laboratuvar, alan gezisi, staj, öğretim yöntem ve teknikleri, sınıf yönetimi, ölçme ve değerlendirme, rehberlik, özel öğretim yöntemleri konularında pek yeterli görmemekte ve ayrıca bu konularda ilave hizmet içi eğitim verilmesini talep etmektedirler. Coğrafya ile ilgili yeni şeyler öğrenmek, yeni gelişme ve değişmeleri takip etmek, teknolojik gelişmelerden faydalanmak istediklerini dile getiren coğrafya öğretmenleri; kişisel anlamda da (CBS, proje hazırlama, tasarım ve animasyon, yabancı dil, akıllı tahta ve tablet kullanımı, stres yönetimi, dikkat artırma teknikleri, bilimsel araştırma teknikleri vb.) kendilerini geliştirmek istemektedirler. Ayrıca kongre, sempozyum, doğa eğitimi, alan gezisi, lisansüstü eğitime katılım konularında da görüşleri olumludur. 
+Coğrafya öğretmenleri öğrenme alanlarına göre; ekosistem, biyoçeşitlilik, tarihi metinler, belgeler ve haritalar, nüfus, yerleşme ve gelecekte olabilecek değişimler, Türkiye'deki bölgesel kalkınma projeleri, Türkiye'deki nüfus projeksiyonlarına dayalı senaryolar, CBS ve dünyanın önemli enerji nakil hatları, insan faaliyetlerinin karbon, azot, oksijen ve su döngülerine olan etkileri, çevre sorunlarının önlenmesine yönelik stratejiler: beslenme halkaları ve taşıma kapasitesi vb. gibi konularda daha fazla hizmet içi eğitime ihtiyaç duyduklarını belirtmişlerdir.
+Ayrıca coğrafya öğretmenleri; hizmet içi eğitim faaliyetlerinde uygulamalı çalışmalara ağırlık verilmesini, çağa ve yeniliklere ayak uydurulmasını, periyodik ve sistemli hizmet içi eğitimlerle öğretmenlerin niteliklerinin artırılması gerektiğini aktarmışlardır. 
+İstekli ve nitelikli eğitimcilerle, belli bir amaca yönelik, ihtiyaçların önemsendiği, kendilerine yeterli imkanların (yol, ek ders ücreti vb.) sağlandığı, küçük gruplarla teknik altyapısı uygun ortamlarda ve uygun zamanlarda eğitimlerin yapılması gerektiğini dile getirmişlerdir. Gerektiğinde hizmet içi eğitimlerin e-öğrenmeler yoluyla desteklenebileceğini de belirtmişlerdir.
+Sonuç olarak, coğrafya öğretmenleri çağı yakalayabilmek ve kendi niteliklerini artırmak için, hem genel öğretmenlik bilgisi hem de kendi alanlarında amaca hizmet eden daha fazla hizmet içi eğitim talep etmektedirler. Elbette bu yapılırken, yapılacak olan hizmet içi eğitim faaliyetlerinde öncelikle niteliğin ön planda tutulmasını istemektedirler.
+	 </v>
+      </c>
+      <c r="I7" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 
+	  This PhD research has been carried out in order to determine the in-service training needs of geography teachers. The population and sample of the research designed in accordance with screening model consists of a total of (N=1409) geography teachers serving throughout the Istanbul province in accordance with Istanbul Provincial National Education Directorate in the 2014-2015 academic year.  
+In the sample selection, two different sampling methods – qualitative and quantitative, have been used. In this aim, for the quantitative sampling, from each of the 39 districts within the Istanbul provincial boundaries, one Anatolian high school, one vocational technical high school, one imam hatip high school, as well as a total six science high schools and three social sciences high schools have been included in the sampling. Quantitative research has been carried out with face to face interviews with (n=210) geography teachers at a total of 124 schools. 
+For qualitative sampling, interviews have been carried out with (n=21) geography teachers selected again from the study population and sample. These teachers consisted of teachers from Anatolian, vocational technical, imam hatip, science, social sciences high schools and three private schools.
+In interviews carried out one on one with geography teachers in schools, the "in-service training requirement determination survey" and "semi structured interview form" has been used as a measurement. The expert opinion and reliability studies of these forms have been carried out with care.
+Quantitative data has been gathered with the help of 210 geography teachers in 39 district centres, and assessed using the SPSS statistics program. Percentage (%) and frequency (f) values have been calculated, and the in-service training needs of geography teachers have been determined. Qualitative data has been gathered with the help of an interview form with 21 geography teachers, and has been analysed using descriptive analysis method.
+In line with the findings, the view of geography teachers towards in-service training is positive and they see in-service training carried out as necessary. A majority of the teachers have participated in-service training on teaching subjects. In addition, the participation in the in-service training in the geography area of the teachers is limited. The geography teachers have requested the organization of more in-service training related to geography teaching and for the quality of the training to be increased.
+The findings show that geography teachers generally carry out their professions willingly and with pleasure. Geography teachers do not see teacher training programs as sufficient, and have reported that teacher training being carried out at education faculties would be more beneficial. The geography teachers participating in the research do not see the universities they have graduated from as sufficient in terms of laboratory, field trips, internships, teaching methods and techniques, classroom management, assessment and evaluation, guidance, special education methods and request that additional in-service training is offered in this regard.  Geography teachers, stating that they would also like to learn new things, follow new developments and changes and benefit from technological advances; also wish to develop themselves on a personal level (GIS, project preparation, design and animation, foreign language, smart board and tablet usage, stress management, attention improvement techniques, scientific research techniques, etc.). In addition, their views on participation to conventions, symposiums, nature education, field trips, post graduate studies are positive. 
+Geography teachers have stated that they require more in-service training in areas such as; ecosystem, biodiversity, historical texts, documents and maps, population settlements and possible future changes, regional development projects in Turkey, scenarios on population projections in Turkey, GIS and the important energy transmission lines in the world, the impact of human activities on carbon, nitrogen, oxygen and water cycles, strategies for the prevention of environmental issues: food chains and transportation capacity etc. depending on their learning areas.
+In addition, geography teachers have also stated the need to focus on practical work in the in-service training activities, to keep pace with the era and innovations, and periodic and systematic in-service training increasing the quality of teachers. 
+They have stated that training must be carried out with willing and qualified instructors, aimed at a specific need, where needs are considered, and sufficient facilities are provided to them (travel, additional course fee etc.), to small groups, in environments with suitable technical infrastructure and at appropriate times. They have also stated that when required, in-service training can be supported with e-learning method.
+As a result, geography teachers are requesting more in-service training that serves a purpose in both general teaching knowledge and their own field, in order to keep up with the era and improve their qualifications. Of course as this is happening, they also want quality to be the focus in in-service training.</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/out2.xlsx
+++ b/cypress/downloads/out2.xlsx
@@ -404,25 +404,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>No</v>
+      </c>
+      <c r="B1" t="str">
         <v>Thesis No</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Author</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Year</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Thesis Name</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Thesis Type</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Subject</v>
-      </c>
-      <c r="G1" t="str">
-        <v>undefined</v>
       </c>
       <c r="H1" t="str">
         <v>trSummary</v>
